--- a/code/inputs/crime_cats.xlsx
+++ b/code/inputs/crime_cats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crystal Water\Desktop\in_progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crystal Water\geodata_pvdcrime\code\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB9D8B2-A060-4406-B2E9-96E6CC691A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6715C536-F020-45EB-87F6-D8F311672BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="85">
   <si>
     <t>offense_desc</t>
   </si>
@@ -260,6 +260,21 @@
   </si>
   <si>
     <t>Reckless and Eluding</t>
+  </si>
+  <si>
+    <t>Narcotics</t>
+  </si>
+  <si>
+    <t>Receiving Stolen Goods</t>
+  </si>
+  <si>
+    <t>Extortion</t>
+  </si>
+  <si>
+    <t>Alarm-Ringing</t>
+  </si>
+  <si>
+    <t>Defacing Property</t>
   </si>
 </sst>
 </file>
@@ -654,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="122" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="122" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,6 +1496,61 @@
         <v>2</v>
       </c>
     </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C73">
     <sortCondition ref="A1:A73"/>

--- a/code/inputs/crime_cats.xlsx
+++ b/code/inputs/crime_cats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crystal Water\geodata_pvdcrime\code\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6715C536-F020-45EB-87F6-D8F311672BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB31C8EB-7A44-4BAE-A0F2-A875ADE54B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="86">
   <si>
     <t>offense_desc</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>Defacing Property</t>
+  </si>
+  <si>
+    <t>Robbery - Strong Arm</t>
   </si>
 </sst>
 </file>
@@ -669,20 +672,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScale="122" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +696,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -704,7 +707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -715,7 +718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -726,7 +729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -737,7 +740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -748,7 +751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -759,7 +762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -770,7 +773,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -781,7 +784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -792,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -803,7 +806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -814,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -825,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -836,7 +839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -847,7 +850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -858,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -869,7 +872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -880,7 +883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -891,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -902,7 +905,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -913,7 +916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -924,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -935,7 +938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -946,7 +949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -957,7 +960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -968,7 +971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -979,7 +982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -990,7 +993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1056,7 +1059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -1067,7 +1070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1089,7 +1092,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1133,7 +1136,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1155,7 +1158,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1177,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1232,7 +1235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -1254,7 +1257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -1309,7 +1312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -1331,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -1408,7 +1411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -1419,7 +1422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -1430,7 +1433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -1463,7 +1466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>35</v>
       </c>
@@ -1485,7 +1488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -1496,7 +1499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -1548,6 +1551,17 @@
         <v>2</v>
       </c>
       <c r="C79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
         <v>2</v>
       </c>
     </row>

--- a/code/inputs/crime_cats.xlsx
+++ b/code/inputs/crime_cats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crystal Water\geodata_pvdcrime\code\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\_geodata\data_public\providence_crime\geodata_pvdcrime\code\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB31C8EB-7A44-4BAE-A0F2-A875ADE54B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD32EC1C-9E4A-407D-A1E2-3B6223D4FFAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="87">
   <si>
     <t>offense_desc</t>
   </si>
@@ -278,13 +278,16 @@
   </si>
   <si>
     <t>Robbery - Strong Arm</t>
+  </si>
+  <si>
+    <t>Sex Offender Violation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +314,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -361,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -369,6 +377,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,20 +683,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="122" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="122" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +707,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -707,7 +718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -718,7 +729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -729,7 +740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -740,7 +751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -751,7 +762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -762,7 +773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -773,7 +784,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -784,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -795,7 +806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -806,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -817,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -828,7 +839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -839,7 +850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -850,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -861,7 +872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -872,7 +883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -883,7 +894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -894,7 +905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -905,7 +916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -916,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -927,7 +938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -938,7 +949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -949,7 +960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -960,7 +971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -971,7 +982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -982,7 +993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -993,7 +1004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1015,7 +1026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1026,7 +1037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1037,7 +1048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -1048,7 +1059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1059,7 +1070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -1070,7 +1081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1081,7 +1092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1092,7 +1103,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1103,7 +1114,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1114,7 +1125,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1125,7 +1136,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1136,7 +1147,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -1147,7 +1158,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1158,7 +1169,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -1169,7 +1180,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1180,7 +1191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -1191,7 +1202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -1202,7 +1213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -1213,7 +1224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -1224,7 +1235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1235,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1246,7 +1257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -1257,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -1268,7 +1279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1279,7 +1290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1290,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1301,7 +1312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -1312,7 +1323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -1323,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -1334,7 +1345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -1345,7 +1356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -1356,7 +1367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -1367,7 +1378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1378,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -1389,7 +1400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -1400,7 +1411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -1411,7 +1422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -1422,7 +1433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -1433,7 +1444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -1444,7 +1455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -1455,7 +1466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -1466,7 +1477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -1477,7 +1488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>35</v>
       </c>
@@ -1488,7 +1499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -1499,7 +1510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -1510,7 +1521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -1521,7 +1532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -1532,7 +1543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -1543,7 +1554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -1554,7 +1565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -1565,8 +1576,19 @@
         <v>2</v>
       </c>
     </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C73">
+  <sortState ref="A2:C73">
     <sortCondition ref="A1:A73"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/code/inputs/crime_cats.xlsx
+++ b/code/inputs/crime_cats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\_geodata\data_public\providence_crime\geodata_pvdcrime\code\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD32EC1C-9E4A-407D-A1E2-3B6223D4FFAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8E3147-5067-4521-BFA7-84F96A3D93EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="93">
   <si>
     <t>offense_desc</t>
   </si>
@@ -281,6 +281,24 @@
   </si>
   <si>
     <t>Sex Offender Violation</t>
+  </si>
+  <si>
+    <t>Attempting Arrest</t>
+  </si>
+  <si>
+    <t>Abduction</t>
+  </si>
+  <si>
+    <t>Drug Equipment</t>
+  </si>
+  <si>
+    <t>Peeping Tom</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Gambling Promotion</t>
   </si>
 </sst>
 </file>
@@ -683,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="122" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="122" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1587,6 +1605,80 @@
         <v>2</v>
       </c>
     </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C73">
     <sortCondition ref="A1:A73"/>

--- a/code/inputs/crime_cats.xlsx
+++ b/code/inputs/crime_cats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\_geodata\data_public\providence_crime\geodata_pvdcrime\code\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8E3147-5067-4521-BFA7-84F96A3D93EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA06CB1-3DB7-4CA0-BBDA-DB163EE8A71D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="94">
   <si>
     <t>offense_desc</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>Gambling Promotion</t>
+  </si>
+  <si>
+    <t>Theft of MV Parts</t>
   </si>
 </sst>
 </file>
@@ -701,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="122" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="122" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1679,6 +1682,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C73">
     <sortCondition ref="A1:A73"/>

--- a/code/inputs/crime_cats.xlsx
+++ b/code/inputs/crime_cats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\_geodata\data_public\providence_crime\geodata_pvdcrime\code\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengzeng/Documents/Brown/GIS/geodata_pvdcrime/code/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA06CB1-3DB7-4CA0-BBDA-DB163EE8A71D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01074D92-C017-914C-A096-365BD49D57FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3640" yWindow="4480" windowWidth="20920" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="95">
   <si>
     <t>offense_desc</t>
   </si>
@@ -302,13 +302,16 @@
   </si>
   <si>
     <t>Theft of MV Parts</t>
+  </si>
+  <si>
+    <t>Assault, Felony</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +343,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -704,20 +708,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="122" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="122" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,7 +732,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -739,7 +743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -750,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -761,7 +765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -772,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -783,7 +787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -794,7 +798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -805,7 +809,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -816,7 +820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -827,7 +831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -838,7 +842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -849,7 +853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -860,7 +864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -871,7 +875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -882,7 +886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -893,7 +897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -904,7 +908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -915,7 +919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -926,7 +930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -937,7 +941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -948,7 +952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -959,7 +963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -970,7 +974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -981,7 +985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -992,7 +996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1003,7 +1007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1014,7 +1018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1025,7 +1029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +1040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1058,7 +1062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1069,7 +1073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -1080,7 +1084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1091,7 +1095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -1102,7 +1106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1113,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1135,7 +1139,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1146,7 +1150,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1168,7 +1172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -1179,7 +1183,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1190,7 +1194,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -1201,7 +1205,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1212,7 +1216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -1245,7 +1249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -1256,7 +1260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -1289,7 +1293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -1300,7 +1304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1311,7 +1315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1322,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1333,7 +1337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -1344,7 +1348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -1355,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -1366,7 +1370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -1377,7 +1381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -1388,7 +1392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -1399,7 +1403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1410,7 +1414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -1421,7 +1425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -1432,7 +1436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -1443,7 +1447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -1454,7 +1458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -1465,7 +1469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -1476,7 +1480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -1487,7 +1491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -1498,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -1509,7 +1513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>35</v>
       </c>
@@ -1520,7 +1524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -1531,7 +1535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -1542,7 +1546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -1553,7 +1557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -1564,7 +1568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -1575,7 +1579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -1586,7 +1590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -1597,7 +1601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>86</v>
       </c>
@@ -1608,7 +1612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -1619,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -1630,7 +1634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -1641,7 +1645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -1652,7 +1656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -1663,7 +1667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>2</v>
       </c>
@@ -1671,7 +1675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>92</v>
       </c>
@@ -1682,7 +1686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -1693,8 +1697,19 @@
         <v>76</v>
       </c>
     </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:C73">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C73">
     <sortCondition ref="A1:A73"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/code/inputs/crime_cats.xlsx
+++ b/code/inputs/crime_cats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengzeng/Documents/Brown/GIS/geodata_pvdcrime/code/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Library_Shared\_geodata\data_public\providence_crime\geodata_pvdcrime\code\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01074D92-C017-914C-A096-365BD49D57FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE833E0-280C-4D33-BC78-F34BCDC21FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="4480" windowWidth="20920" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="96">
   <si>
     <t>offense_desc</t>
   </si>
@@ -305,13 +305,16 @@
   </si>
   <si>
     <t>Assault, Felony</t>
+  </si>
+  <si>
+    <t>Lost Article</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,20 +711,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="122" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="122" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +735,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -743,7 +746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -754,7 +757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -765,7 +768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -776,7 +779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -787,7 +790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -798,7 +801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -809,7 +812,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -820,7 +823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -831,7 +834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -842,7 +845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -853,7 +856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -864,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -875,7 +878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -886,7 +889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -897,7 +900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -908,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -919,7 +922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -930,7 +933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -941,7 +944,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -952,7 +955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -963,7 +966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -974,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -985,7 +988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -996,7 +999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1029,7 +1032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1051,7 +1054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1095,7 +1098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1128,7 +1131,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1139,7 +1142,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -1249,7 +1252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1282,7 +1285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -1381,7 +1384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -1491,7 +1494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -1502,7 +1505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>35</v>
       </c>
@@ -1524,7 +1527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -1546,7 +1549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -1568,7 +1571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -1590,7 +1593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -1601,7 +1604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="4" t="s">
         <v>86</v>
       </c>
@@ -1612,7 +1615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -1623,7 +1626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="B87" t="s">
         <v>2</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="4" t="s">
         <v>92</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -1705,6 +1708,17 @@
         <v>31</v>
       </c>
       <c r="C90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
         <v>2</v>
       </c>
     </row>
